--- a/biology/Zoologie/Charaxes_harmodius/Charaxes_harmodius.xlsx
+++ b/biology/Zoologie/Charaxes_harmodius/Charaxes_harmodius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charaxes harmodius est une espèce d'insectes lépidoptères  appartenant à la famille des Nymphalidae, à la sous-famille des Charaxinae et au genre Charaxes.
 </t>
@@ -511,50 +523,54 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Charaxes harmodius a été nommé par Cajetan Freiherr von Felder et Rudolf Felder en 1867[1].
-Sous-espèces
-Charaxes harmodius harmodius à Java.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charaxes harmodius a été nommé par Cajetan Freiherr von Felder et Rudolf Felder en 1867.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Charaxes_harmodius</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_harmodius</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Charaxes harmodius harmodius à Java.
 Charaxes harmodius harpagon Staudinger, 1889 ; présent à Palawan.
 Charaxes harmodius infernus Rothschild, 1903 ; présent à Bornéo.
 Charaxes harmodius martinus Rothschild, 1900 ; présent en Malaisie et à Sumatra.
 Charaxes harmodius martinus Rothschild, 1900
 Charaxes harmodius maruyamai Hanafusa, 1987
-Charaxes harmodius shiloi Hanafusa, 1994 ; dans le Sud du Laos[1].
-Noms vernaculaires</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Charaxes_harmodius</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Charaxes_harmodius</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charaxes harmodius est un grand papillon cuivré aux ailes antérieures concaves à apex et bordure marron et aux ailes postérieures avec une toute petite queue ornées d'une ligne submarginale de points marron dont les deux premiers pupillés de blanc.
-Le revers est marron cuivré suffusé de violet.
-</t>
+Charaxes harmodius shiloi Hanafusa, 1994 ; dans le Sud du Laos.</t>
         </is>
       </c>
     </row>
@@ -579,12 +595,16 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charaxes harmodius est un grand papillon cuivré aux ailes antérieures concaves à apex et bordure marron et aux ailes postérieures avec une toute petite queue ornées d'une ligne submarginale de points marron dont les deux premiers pupillés de blanc.
+Le revers est marron cuivré suffusé de violet.
+</t>
         </is>
       </c>
     </row>
@@ -612,14 +632,50 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent en Malaisie, en Indonésie à Sumatra et Bornéo et aux Philippines à Palawan[1].Il serait aussi présent en Thaïlande et dans le sud du Laos[2],[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent en Malaisie, en Indonésie à Sumatra et Bornéo et aux Philippines à Palawan.Il serait aussi présent en Thaïlande et dans le sud du Laos,.
 Sur les autres projets Wikimedia :
 Charaxes harmodius, sur Wikimedia CommonsCharaxes harmodius, sur Wikispecies
-Biotope
-Protection
-Pas de protection : il est en vente libre sur internet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Charaxes_harmodius</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_harmodius</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de protection : il est en vente libre sur internet.
 </t>
         </is>
       </c>
